--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316117.3886748601</v>
+        <v>311870.1107969821</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3282900.401422123</v>
+        <v>4893371.670286953</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19844272.54450373</v>
+        <v>21422695.43511814</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4921240.529955675</v>
+        <v>4266140.510654973</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>20.35309587319853</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I8" t="n">
         <v>39.88136420416884</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34.46822845646948</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>35.1275055910319</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F11" t="n">
-        <v>39.88136420416884</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.88136420416884</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="R13" t="n">
         <v>39.88136420416884</v>
@@ -1579,7 +1581,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="T13" t="n">
-        <v>35.12750559103189</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="F15" t="n">
-        <v>35.1275055910319</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>39.88136420416884</v>
@@ -1704,7 +1706,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="I15" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>44.21387696367703</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="S18" t="n">
-        <v>35.1275055910319</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.21387696367703</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.12750559103189</v>
+        <v>24.40088325534111</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="U19" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.5891775064833</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="C20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>44.21387696367704</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>44.21387696367703</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>24.40088325534112</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>32.75410523180391</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>91.29133474972765</v>
       </c>
       <c r="C23" t="n">
-        <v>99.73835480560622</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="D23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>91.95061188429007</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>73.84789692062095</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>104.3944276615465</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>74.51869898006186</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.2838073416025</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>274.2838073416025</v>
+        <v>56.82310629325821</v>
       </c>
       <c r="H26" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>274.2838073416025</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>93.18386859839605</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>56.82310629325821</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>49.88699972685311</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="D29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>99.07907767104376</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>274.2838073416025</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>56.82310629325821</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>56.82310629325821</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="U30" t="n">
-        <v>115.4211541469668</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2959,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>32.75410523180391</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>49.8869997268531</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>56.82310629325823</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>206.4616719154515</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>56.82310629325821</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>85.758947406983</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>178.9131266416083</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>49.88699972685308</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>206.4616719154515</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>56.82310629325823</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>19.0260871882967</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>56.82310629325823</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>64.51306345737763</v>
       </c>
     </row>
     <row r="37">
@@ -3436,19 +3438,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>35.11259000901972</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>11.02353771150029</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="W38" t="n">
-        <v>206.4616719154515</v>
+        <v>56.82310629325823</v>
       </c>
       <c r="X38" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>131.027642769737</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>56.82310629325823</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>49.88699972685308</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.4024431374336</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="C41" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>64.61084921457442</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.4024431374336</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="42">
@@ -3819,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.08009502458085</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="43">
@@ -3940,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S43" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>44.14065190272872</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>138.9667741164748</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>98.68256784963759</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="D8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="E8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="F8" t="n">
-        <v>44.14065190272872</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="G8" t="n">
-        <v>44.14065190272872</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="H8" t="n">
         <v>44.14065190272872</v>
@@ -4805,49 +4807,49 @@
         <v>3.190509136333507</v>
       </c>
       <c r="K8" t="n">
-        <v>41.07780513029389</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L8" t="n">
-        <v>41.07780513029389</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M8" t="n">
-        <v>80.56035569242104</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N8" t="n">
-        <v>120.0429062545482</v>
+        <v>121.638160822715</v>
       </c>
       <c r="O8" t="n">
-        <v>159.5254568166754</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P8" t="n">
-        <v>159.5254568166754</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q8" t="n">
         <v>159.5254568166754</v>
       </c>
       <c r="R8" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S8" t="n">
-        <v>78.95704428300093</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.14065190272872</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="D9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="E9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="F9" t="n">
-        <v>3.190509136333507</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="G9" t="n">
-        <v>3.190509136333507</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="H9" t="n">
-        <v>3.190509136333507</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="I9" t="n">
         <v>3.190509136333507</v>
       </c>
       <c r="J9" t="n">
-        <v>10.58381998281841</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K9" t="n">
-        <v>50.06637054494556</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L9" t="n">
+        <v>42.67305969846066</v>
+      </c>
+      <c r="M9" t="n">
         <v>80.56035569242104</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>120.0429062545482</v>
       </c>
-      <c r="N9" t="n">
-        <v>159.5254568166754</v>
-      </c>
       <c r="O9" t="n">
-        <v>159.5254568166754</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P9" t="n">
         <v>159.5254568166754</v>
@@ -4905,28 +4907,28 @@
         <v>159.5254568166754</v>
       </c>
       <c r="R9" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S9" t="n">
-        <v>78.95704428300093</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T9" t="n">
-        <v>38.67283801616371</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="10">
@@ -5018,22 +5020,22 @@
         <v>159.5254568166754</v>
       </c>
       <c r="C11" t="n">
-        <v>124.0431279368452</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D11" t="n">
-        <v>124.0431279368452</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E11" t="n">
-        <v>124.0431279368452</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F11" t="n">
-        <v>83.75892167000794</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G11" t="n">
-        <v>83.75892167000794</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H11" t="n">
-        <v>43.47471540317073</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I11" t="n">
         <v>3.190509136333507</v>
@@ -5045,16 +5047,16 @@
         <v>42.67305969846066</v>
       </c>
       <c r="L11" t="n">
-        <v>82.15561026058782</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="M11" t="n">
-        <v>121.638160822715</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="N11" t="n">
-        <v>155.5065095845499</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="O11" t="n">
-        <v>155.5065095845499</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P11" t="n">
         <v>155.5065095845499</v>
@@ -5124,13 +5126,13 @@
         <v>3.190509136333507</v>
       </c>
       <c r="L12" t="n">
-        <v>3.190509136333507</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M12" t="n">
-        <v>3.190509136333507</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N12" t="n">
-        <v>41.07780513029389</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="O12" t="n">
         <v>80.56035569242104</v>
@@ -5218,13 +5220,13 @@
         <v>159.5254568166754</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.2412505498381</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="R13" t="n">
-        <v>78.95704428300093</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="S13" t="n">
-        <v>38.67283801616371</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="T13" t="n">
         <v>3.190509136333507</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C14" t="n">
-        <v>3.190509136333507</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D14" t="n">
-        <v>3.190509136333507</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E14" t="n">
-        <v>3.190509136333507</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F14" t="n">
         <v>3.190509136333507</v>
@@ -5282,16 +5284,16 @@
         <v>3.190509136333507</v>
       </c>
       <c r="L14" t="n">
-        <v>3.190509136333507</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="M14" t="n">
-        <v>42.67305969846066</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="N14" t="n">
-        <v>82.15561026058782</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="O14" t="n">
-        <v>121.638160822715</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P14" t="n">
         <v>155.5065095845499</v>
@@ -5300,28 +5302,28 @@
         <v>159.5254568166754</v>
       </c>
       <c r="R14" t="n">
-        <v>119.2412505498381</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S14" t="n">
-        <v>78.95704428300093</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T14" t="n">
-        <v>38.67283801616371</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U14" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V14" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W14" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X14" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.190509136333507</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5339,40 @@
         <v>159.5254568166754</v>
       </c>
       <c r="D15" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="E15" t="n">
-        <v>159.5254568166754</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F15" t="n">
-        <v>124.0431279368452</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="G15" t="n">
-        <v>83.75892167000794</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H15" t="n">
-        <v>43.47471540317073</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I15" t="n">
         <v>3.190509136333507</v>
       </c>
       <c r="J15" t="n">
-        <v>10.58381998281841</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K15" t="n">
-        <v>50.06637054494556</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L15" t="n">
+        <v>42.67305969846066</v>
+      </c>
+      <c r="M15" t="n">
         <v>80.56035569242104</v>
-      </c>
-      <c r="M15" t="n">
-        <v>120.0429062545482</v>
       </c>
       <c r="N15" t="n">
         <v>120.0429062545482</v>
       </c>
       <c r="O15" t="n">
-        <v>120.0429062545482</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P15" t="n">
         <v>159.5254568166754</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="C17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="D17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="E17" t="n">
-        <v>3.190509136333507</v>
+        <v>150.0851794655044</v>
       </c>
       <c r="F17" t="n">
-        <v>3.190509136333507</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="G17" t="n">
-        <v>3.190509136333507</v>
+        <v>48.67627442124464</v>
       </c>
       <c r="H17" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="I17" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="J17" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="K17" t="n">
-        <v>42.67305969846066</v>
+        <v>53.71122655669217</v>
       </c>
       <c r="L17" t="n">
-        <v>82.15561026058782</v>
+        <v>103.4066604736316</v>
       </c>
       <c r="M17" t="n">
-        <v>82.15561026058782</v>
+        <v>147.0752508385693</v>
       </c>
       <c r="N17" t="n">
-        <v>82.15561026058782</v>
+        <v>147.0752508385693</v>
       </c>
       <c r="O17" t="n">
-        <v>116.0239590224227</v>
+        <v>147.0752508385693</v>
       </c>
       <c r="P17" t="n">
-        <v>155.5065095845499</v>
+        <v>196.7706847555088</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.5254568166754</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="R17" t="n">
-        <v>119.2412505498381</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="S17" t="n">
-        <v>78.95704428300093</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="T17" t="n">
-        <v>38.67283801616371</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="U17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="V17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="W17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="X17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.190509136333507</v>
+        <v>200.7896319876343</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="C18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="D18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="E18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="F18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="G18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="H18" t="n">
-        <v>43.47471540317073</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="I18" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="J18" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="K18" t="n">
-        <v>3.190509136333507</v>
+        <v>51.70333023681584</v>
       </c>
       <c r="L18" t="n">
-        <v>42.67305969846066</v>
+        <v>51.70333023681584</v>
       </c>
       <c r="M18" t="n">
-        <v>82.15561026058782</v>
+        <v>51.70333023681584</v>
       </c>
       <c r="N18" t="n">
-        <v>82.15561026058782</v>
+        <v>101.3987641537553</v>
       </c>
       <c r="O18" t="n">
-        <v>82.15561026058782</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="P18" t="n">
-        <v>120.0429062545482</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.5254568166754</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="R18" t="n">
-        <v>119.2412505498381</v>
+        <v>150.0851794655044</v>
       </c>
       <c r="S18" t="n">
-        <v>83.75892167000794</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="T18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="U18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="V18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="W18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="X18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="Y18" t="n">
-        <v>83.75892167000794</v>
+        <v>54.72024516188256</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.190509136333507</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="C19" t="n">
-        <v>3.190509136333507</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="D19" t="n">
-        <v>3.190509136333507</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="E19" t="n">
-        <v>3.190509136333507</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="F19" t="n">
-        <v>3.190509136333507</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="G19" t="n">
-        <v>3.190509136333507</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="H19" t="n">
-        <v>3.190509136333507</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="I19" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="J19" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="K19" t="n">
-        <v>3.190509136333507</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="L19" t="n">
-        <v>40.2770280630527</v>
+        <v>41.10231156647188</v>
       </c>
       <c r="M19" t="n">
-        <v>79.75957862517986</v>
+        <v>90.79774548341136</v>
       </c>
       <c r="N19" t="n">
-        <v>119.242129187307</v>
+        <v>140.4931794003508</v>
       </c>
       <c r="O19" t="n">
-        <v>153.4646551369784</v>
+        <v>174.7157053500222</v>
       </c>
       <c r="P19" t="n">
-        <v>159.5254568166754</v>
+        <v>180.7765070297192</v>
       </c>
       <c r="Q19" t="n">
-        <v>159.5254568166754</v>
+        <v>180.7765070297192</v>
       </c>
       <c r="R19" t="n">
-        <v>119.2412505498381</v>
+        <v>180.7765070297192</v>
       </c>
       <c r="S19" t="n">
-        <v>119.2412505498381</v>
+        <v>180.7765070297192</v>
       </c>
       <c r="T19" t="n">
-        <v>119.2412505498381</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="U19" t="n">
-        <v>78.95704428300093</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="V19" t="n">
-        <v>78.95704428300093</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="W19" t="n">
-        <v>78.95704428300093</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="X19" t="n">
-        <v>38.67283801616371</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.67283801616371</v>
+        <v>130.0720545075893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>853.1057571376389</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="C20" t="n">
-        <v>576.0514062875353</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="D20" t="n">
-        <v>576.0514062875353</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="E20" t="n">
-        <v>298.9970554374318</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="F20" t="n">
-        <v>298.9970554374318</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="G20" t="n">
-        <v>298.9970554374318</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="I20" t="n">
-        <v>21.9427045873282</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="J20" t="n">
-        <v>21.9427045873282</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="K20" t="n">
-        <v>143.241092649432</v>
+        <v>53.71122655669217</v>
       </c>
       <c r="L20" t="n">
-        <v>345.6915471007955</v>
+        <v>53.71122655669217</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1689795623909</v>
+        <v>101.3987641537553</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003604</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536998</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="P20" t="n">
-        <v>1093.116282134284</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="Q20" t="n">
-        <v>1097.13522936641</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="R20" t="n">
-        <v>1097.13522936641</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.13522936641</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.13522936641</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="U20" t="n">
-        <v>1097.13522936641</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.13522936641</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.13522936641</v>
+        <v>156.1291502061423</v>
       </c>
       <c r="X20" t="n">
-        <v>1097.13522936641</v>
+        <v>105.4246976840124</v>
       </c>
       <c r="Y20" t="n">
-        <v>1097.13522936641</v>
+        <v>54.72024516188256</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.9427045873282</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="C21" t="n">
-        <v>21.9427045873282</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="D21" t="n">
-        <v>21.9427045873282</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9427045873282</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="H21" t="n">
-        <v>21.9427045873282</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="I21" t="n">
-        <v>21.9427045873282</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>11.40910348623759</v>
       </c>
       <c r="K21" t="n">
-        <v>29.3360154338131</v>
+        <v>61.10453740317706</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4136198757311</v>
+        <v>61.10453740317706</v>
       </c>
       <c r="M21" t="n">
-        <v>548.9545891439176</v>
+        <v>61.10453740317706</v>
       </c>
       <c r="N21" t="n">
-        <v>820.4955584121041</v>
+        <v>61.10453740317706</v>
       </c>
       <c r="O21" t="n">
-        <v>1088.375177389425</v>
+        <v>101.3987641537553</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.13522936641</v>
+        <v>151.0941980706948</v>
       </c>
       <c r="Q21" t="n">
-        <v>1097.13522936641</v>
+        <v>200.7896319876343</v>
       </c>
       <c r="R21" t="n">
-        <v>1097.13522936641</v>
+        <v>150.0851794655044</v>
       </c>
       <c r="S21" t="n">
-        <v>1097.13522936641</v>
+        <v>150.0851794655044</v>
       </c>
       <c r="T21" t="n">
-        <v>1097.13522936641</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="U21" t="n">
-        <v>870.2087878843885</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="V21" t="n">
-        <v>635.9575444099894</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="W21" t="n">
-        <v>383.4430527433227</v>
+        <v>99.38072694337451</v>
       </c>
       <c r="X21" t="n">
-        <v>176.9161541489002</v>
+        <v>54.72024516188256</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.9161541489002</v>
+        <v>54.72024516188256</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="C22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="D22" t="n">
-        <v>1064.05027458681</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="E22" t="n">
-        <v>1064.05027458681</v>
+        <v>79.36760198545944</v>
       </c>
       <c r="F22" t="n">
-        <v>916.4148994253914</v>
+        <v>28.66314946332957</v>
       </c>
       <c r="G22" t="n">
-        <v>916.4148994253914</v>
+        <v>28.66314946332957</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>28.66314946332957</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>4.015792639752686</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>41.10231156647188</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>90.79774548341136</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>140.4931794003508</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>174.7157053500222</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>180.7765070297192</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="S22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="T22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="U22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="V22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="W22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
       <c r="Y22" t="n">
-        <v>1064.05027458681</v>
+        <v>130.0720545075893</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>399.7428683723875</v>
+        <v>114.4664075423266</v>
       </c>
       <c r="C23" t="n">
-        <v>298.9970554374318</v>
+        <v>9.017490712481713</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>9.017490712481713</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>9.017490712481713</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>9.017490712481713</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>9.017490712481713</v>
       </c>
       <c r="H23" t="n">
-        <v>21.9427045873282</v>
+        <v>9.017490712481713</v>
       </c>
       <c r="I23" t="n">
-        <v>21.9427045873282</v>
+        <v>9.017490712481713</v>
       </c>
       <c r="J23" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="K23" t="n">
-        <v>143.241092649432</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007955</v>
+        <v>111.7020375978547</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>215.0525209827857</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>318.4030043677167</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>417.5777106461859</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134284</v>
+        <v>417.5777106461859</v>
       </c>
       <c r="Q23" t="n">
-        <v>1097.13522936641</v>
+        <v>417.5777106461859</v>
       </c>
       <c r="R23" t="n">
-        <v>953.8515700725947</v>
+        <v>417.5777106461859</v>
       </c>
       <c r="S23" t="n">
-        <v>953.8515700725947</v>
+        <v>417.5777106461859</v>
       </c>
       <c r="T23" t="n">
-        <v>953.8515700725947</v>
+        <v>312.1287938163409</v>
       </c>
       <c r="U23" t="n">
-        <v>953.8515700725947</v>
+        <v>312.1287938163409</v>
       </c>
       <c r="V23" t="n">
-        <v>676.7972192224911</v>
+        <v>312.1287938163409</v>
       </c>
       <c r="W23" t="n">
-        <v>676.7972192224911</v>
+        <v>206.679876986496</v>
       </c>
       <c r="X23" t="n">
-        <v>676.7972192224911</v>
+        <v>206.679876986496</v>
       </c>
       <c r="Y23" t="n">
-        <v>399.7428683723875</v>
+        <v>206.679876986496</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>244.1248465017388</v>
+        <v>101.2309601566511</v>
       </c>
       <c r="C24" t="n">
-        <v>244.1248465017388</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="D24" t="n">
-        <v>96.53653986068269</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="E24" t="n">
-        <v>96.53653986068269</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="F24" t="n">
-        <v>96.53653986068269</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="G24" t="n">
-        <v>96.53653986068269</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="H24" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="I24" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="J24" t="n">
-        <v>21.9427045873282</v>
+        <v>15.74486505940862</v>
       </c>
       <c r="K24" t="n">
-        <v>21.9427045873282</v>
+        <v>26.34809247509492</v>
       </c>
       <c r="L24" t="n">
-        <v>270.0203090292462</v>
+        <v>129.6985758600259</v>
       </c>
       <c r="M24" t="n">
-        <v>541.5612782974326</v>
+        <v>233.0490592449569</v>
       </c>
       <c r="N24" t="n">
-        <v>813.1022475656191</v>
+        <v>336.3995426298879</v>
       </c>
       <c r="O24" t="n">
-        <v>1080.98186654294</v>
+        <v>336.3995426298879</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.13522936641</v>
+        <v>336.3995426298879</v>
       </c>
       <c r="Q24" t="n">
-        <v>1097.13522936641</v>
+        <v>417.5777106461859</v>
       </c>
       <c r="R24" t="n">
-        <v>1097.13522936641</v>
+        <v>417.5777106461859</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>312.1287938163409</v>
       </c>
       <c r="T24" t="n">
-        <v>1097.13522936641</v>
+        <v>206.679876986496</v>
       </c>
       <c r="U24" t="n">
-        <v>870.2087878843885</v>
+        <v>206.679876986496</v>
       </c>
       <c r="V24" t="n">
-        <v>870.2087878843885</v>
+        <v>206.679876986496</v>
       </c>
       <c r="W24" t="n">
-        <v>617.6942962177218</v>
+        <v>206.679876986496</v>
       </c>
       <c r="X24" t="n">
-        <v>411.1673976232993</v>
+        <v>206.679876986496</v>
       </c>
       <c r="Y24" t="n">
-        <v>411.1673976232993</v>
+        <v>101.2309601566511</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>83.62296732409732</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="G25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="I25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="J25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="K25" t="n">
-        <v>21.9427045873282</v>
+        <v>8.351554212923718</v>
       </c>
       <c r="L25" t="n">
-        <v>59.02922351404739</v>
+        <v>45.43807313964291</v>
       </c>
       <c r="M25" t="n">
-        <v>108.7246574309869</v>
+        <v>95.13350705658239</v>
       </c>
       <c r="N25" t="n">
-        <v>162.3797068989784</v>
+        <v>148.7885565245739</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6022328486497</v>
+        <v>183.0110824742453</v>
       </c>
       <c r="P25" t="n">
-        <v>202.6630345283467</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.096671017389</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="R25" t="n">
-        <v>122.096671017389</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="S25" t="n">
-        <v>122.096671017389</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="T25" t="n">
-        <v>122.096671017389</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="U25" t="n">
-        <v>122.096671017389</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>189.0718841539422</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>189.0718841539422</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>543.0265276662028</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="C26" t="n">
-        <v>543.0265276662028</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="D26" t="n">
-        <v>543.0265276662028</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="E26" t="n">
-        <v>543.0265276662028</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="F26" t="n">
-        <v>543.0265276662028</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="G26" t="n">
-        <v>265.9721768160992</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H26" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J26" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K26" t="n">
-        <v>143.241092649432</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="L26" t="n">
-        <v>345.6915471007955</v>
+        <v>69.02897789939406</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1689795623909</v>
+        <v>132.8969107221979</v>
       </c>
       <c r="N26" t="n">
-        <v>815.0204133003604</v>
+        <v>196.7648435450018</v>
       </c>
       <c r="O26" t="n">
-        <v>984.9899813536998</v>
+        <v>196.7648435450018</v>
       </c>
       <c r="P26" t="n">
-        <v>1093.116282134284</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q26" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="W26" t="n">
-        <v>820.0808785163064</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="X26" t="n">
-        <v>820.0808785163064</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="Y26" t="n">
-        <v>820.0808785163064</v>
+        <v>192.8875432665028</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>376.1982560936602</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="C27" t="n">
-        <v>203.4451410154774</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="D27" t="n">
-        <v>203.4451410154774</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="E27" t="n">
-        <v>203.4451410154774</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="F27" t="n">
-        <v>203.4451410154774</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G27" t="n">
-        <v>203.4451410154774</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H27" t="n">
-        <v>109.3200212191178</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I27" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J27" t="n">
-        <v>21.9427045873282</v>
+        <v>12.55435592307511</v>
       </c>
       <c r="K27" t="n">
-        <v>29.88839882768988</v>
+        <v>12.55435592307511</v>
       </c>
       <c r="L27" t="n">
-        <v>277.9660032696079</v>
+        <v>76.42228874587896</v>
       </c>
       <c r="M27" t="n">
-        <v>549.5069725377944</v>
+        <v>140.2902215686828</v>
       </c>
       <c r="N27" t="n">
-        <v>549.5069725377944</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="O27" t="n">
-        <v>817.386591515115</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q27" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R27" t="n">
-        <v>1001.483734658237</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S27" t="n">
-        <v>1001.483734658237</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T27" t="n">
-        <v>1001.483734658237</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U27" t="n">
-        <v>1001.483734658237</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="V27" t="n">
-        <v>1001.483734658237</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="W27" t="n">
-        <v>748.9692429915702</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="X27" t="n">
-        <v>748.9692429915702</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="Y27" t="n">
-        <v>543.2408072152207</v>
+        <v>5.16104507659021</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="F28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>42.24756400330941</v>
       </c>
       <c r="M28" t="n">
-        <v>108.7246574309869</v>
+        <v>91.94299792024889</v>
       </c>
       <c r="N28" t="n">
-        <v>162.3797068989784</v>
+        <v>145.5980473882404</v>
       </c>
       <c r="O28" t="n">
-        <v>196.6022328486497</v>
+        <v>179.8205733379118</v>
       </c>
       <c r="P28" t="n">
-        <v>202.6630345283467</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="Q28" t="n">
-        <v>122.096671017389</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="R28" t="n">
-        <v>21.9427045873282</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>676.7972192224911</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="C29" t="n">
-        <v>676.7972192224911</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="D29" t="n">
-        <v>399.7428683723875</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="E29" t="n">
-        <v>299.6629919369898</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="F29" t="n">
-        <v>22.60864108688619</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="G29" t="n">
-        <v>22.60864108688619</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H29" t="n">
-        <v>22.60864108688619</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I29" t="n">
-        <v>22.60864108688619</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J29" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K29" t="n">
-        <v>143.241092649432</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007955</v>
+        <v>69.02897789939406</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623909</v>
+        <v>132.8969107221979</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003604</v>
+        <v>190.1653737745812</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536998</v>
+        <v>190.1653737745812</v>
       </c>
       <c r="P29" t="n">
-        <v>1093.116282134284</v>
+        <v>254.033306597385</v>
       </c>
       <c r="Q29" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R29" t="n">
-        <v>953.8515700725947</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S29" t="n">
-        <v>953.8515700725947</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T29" t="n">
-        <v>953.8515700725947</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U29" t="n">
-        <v>953.8515700725947</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="V29" t="n">
-        <v>953.8515700725947</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="W29" t="n">
-        <v>953.8515700725947</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="X29" t="n">
-        <v>953.8515700725947</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="Y29" t="n">
-        <v>676.7972192224911</v>
+        <v>192.8875432665028</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>609.4935122342081</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="C30" t="n">
-        <v>609.4935122342081</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="D30" t="n">
-        <v>461.9052055931519</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="E30" t="n">
-        <v>304.2956765960066</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="F30" t="n">
-        <v>159.3398866126235</v>
+        <v>62.5581221404874</v>
       </c>
       <c r="G30" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H30" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I30" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J30" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K30" t="n">
-        <v>21.9427045873282</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="L30" t="n">
-        <v>270.0203090292462</v>
+        <v>69.02897789939406</v>
       </c>
       <c r="M30" t="n">
-        <v>541.5612782974326</v>
+        <v>132.8969107221979</v>
       </c>
       <c r="N30" t="n">
-        <v>549.5069725377944</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="O30" t="n">
-        <v>817.386591515115</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="P30" t="n">
-        <v>1015.957061350112</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q30" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S30" t="n">
-        <v>926.4669324920217</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="T30" t="n">
-        <v>726.0805366250836</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="U30" t="n">
-        <v>609.4935122342081</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="V30" t="n">
-        <v>609.4935122342081</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="W30" t="n">
-        <v>609.4935122342081</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="X30" t="n">
-        <v>609.4935122342081</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="Y30" t="n">
-        <v>609.4935122342081</v>
+        <v>127.7228327034951</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1097.13522936641</v>
+        <v>120.716664454601</v>
       </c>
       <c r="C31" t="n">
-        <v>1097.13522936641</v>
+        <v>120.716664454601</v>
       </c>
       <c r="D31" t="n">
-        <v>1097.13522936641</v>
+        <v>120.716664454601</v>
       </c>
       <c r="E31" t="n">
-        <v>1097.13522936641</v>
+        <v>120.716664454601</v>
       </c>
       <c r="F31" t="n">
-        <v>949.4998542049913</v>
+        <v>120.716664454601</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>120.716664454601</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>120.716664454601</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>42.24756400330941</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>91.94299792024889</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>145.5980473882404</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>179.8205733379118</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.13522936641</v>
+        <v>185.8813750176087</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.13522936641</v>
+        <v>120.716664454601</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.13522936641</v>
+        <v>120.716664454601</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.13522936641</v>
+        <v>120.716664454601</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>255.522340034261</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="C32" t="n">
-        <v>255.522340034261</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="D32" t="n">
-        <v>255.522340034261</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="E32" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="F32" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G32" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H32" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I32" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J32" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K32" t="n">
-        <v>18.75219545099469</v>
+        <v>69.02897789939406</v>
       </c>
       <c r="L32" t="n">
-        <v>198.6040512717817</v>
+        <v>132.8969107221979</v>
       </c>
       <c r="M32" t="n">
-        <v>430.6624699778409</v>
+        <v>190.1653737745812</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5139037158104</v>
+        <v>190.1653737745812</v>
       </c>
       <c r="O32" t="n">
-        <v>829.4834717691499</v>
+        <v>254.033306597385</v>
       </c>
       <c r="P32" t="n">
-        <v>937.6097725497345</v>
+        <v>254.033306597385</v>
       </c>
       <c r="Q32" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R32" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S32" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T32" t="n">
-        <v>937.6097725497345</v>
+        <v>200.6551767656133</v>
       </c>
       <c r="U32" t="n">
-        <v>937.6097725497345</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="V32" t="n">
-        <v>937.6097725497345</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="W32" t="n">
-        <v>700.8396279664682</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="X32" t="n">
-        <v>492.2924846175273</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="Y32" t="n">
-        <v>492.2924846175273</v>
+        <v>70.32575563959792</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.75219545099469</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="C33" t="n">
-        <v>18.75219545099469</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="D33" t="n">
-        <v>18.75219545099469</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="E33" t="n">
-        <v>18.75219545099469</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="F33" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G33" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H33" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I33" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J33" t="n">
-        <v>26.14550629747959</v>
+        <v>12.55435592307511</v>
       </c>
       <c r="K33" t="n">
-        <v>165.3874653556305</v>
+        <v>66.44845536109895</v>
       </c>
       <c r="L33" t="n">
-        <v>397.4458840616898</v>
+        <v>66.44845536109895</v>
       </c>
       <c r="M33" t="n">
-        <v>506.9808840086783</v>
+        <v>130.3163881839028</v>
       </c>
       <c r="N33" t="n">
-        <v>506.9808840086783</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="O33" t="n">
-        <v>739.0393027147376</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="P33" t="n">
-        <v>937.6097725497345</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="Q33" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R33" t="n">
-        <v>937.6097725497345</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="S33" t="n">
-        <v>766.9414756753463</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="T33" t="n">
-        <v>566.5550798084082</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="U33" t="n">
-        <v>339.6286383263867</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="V33" t="n">
-        <v>105.3773948519876</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="W33" t="n">
-        <v>18.75219545099469</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="X33" t="n">
-        <v>18.75219545099469</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.75219545099469</v>
+        <v>127.7228327034951</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="C34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="D34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="E34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="F34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="G34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="H34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="I34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="J34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="K34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="L34" t="n">
-        <v>793.9759615354353</v>
+        <v>114.4184428152112</v>
       </c>
       <c r="M34" t="n">
-        <v>843.6713954523748</v>
+        <v>164.1138767321507</v>
       </c>
       <c r="N34" t="n">
-        <v>897.3264449203663</v>
+        <v>217.7689262001422</v>
       </c>
       <c r="O34" t="n">
-        <v>931.5489708700376</v>
+        <v>251.9914521498135</v>
       </c>
       <c r="P34" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q34" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R34" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S34" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T34" t="n">
-        <v>937.6097725497345</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="U34" t="n">
-        <v>937.6097725497345</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="V34" t="n">
-        <v>937.6097725497345</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="W34" t="n">
-        <v>756.8894426087161</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="X34" t="n">
-        <v>756.8894426087161</v>
+        <v>127.7228327034951</v>
       </c>
       <c r="Y34" t="n">
-        <v>756.8894426087161</v>
+        <v>77.33192388849199</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>227.2993387999356</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="C35" t="n">
-        <v>18.75219545099469</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="D35" t="n">
-        <v>18.75219545099469</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="E35" t="n">
-        <v>18.75219545099469</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="F35" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G35" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H35" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I35" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J35" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K35" t="n">
-        <v>140.0505835130984</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="L35" t="n">
-        <v>342.5010379644619</v>
+        <v>66.44845536109895</v>
       </c>
       <c r="M35" t="n">
-        <v>574.5594566705213</v>
+        <v>130.3163881839028</v>
       </c>
       <c r="N35" t="n">
-        <v>803.4108904084908</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="O35" t="n">
-        <v>933.5908253176091</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="P35" t="n">
-        <v>933.5908253176091</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q35" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R35" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S35" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T35" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U35" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="V35" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="W35" t="n">
-        <v>700.8396279664682</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="X35" t="n">
-        <v>700.8396279664682</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Y35" t="n">
-        <v>464.0694833832019</v>
+        <v>192.8875432665028</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>358.311887057402</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="C36" t="n">
-        <v>185.5587719792192</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="D36" t="n">
-        <v>37.97046533816308</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="E36" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="F36" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G36" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H36" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I36" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J36" t="n">
-        <v>26.14550629747959</v>
+        <v>12.55435592307511</v>
       </c>
       <c r="K36" t="n">
-        <v>165.3874653556305</v>
+        <v>12.55435592307511</v>
       </c>
       <c r="L36" t="n">
-        <v>397.4458840616898</v>
+        <v>76.42228874587896</v>
       </c>
       <c r="M36" t="n">
-        <v>397.4458840616898</v>
+        <v>130.3163881839028</v>
       </c>
       <c r="N36" t="n">
-        <v>506.9808840086783</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="O36" t="n">
-        <v>739.0393027147376</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="P36" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q36" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R36" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S36" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T36" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U36" t="n">
-        <v>937.6097725497345</v>
+        <v>200.6551767656133</v>
       </c>
       <c r="V36" t="n">
-        <v>937.6097725497345</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="W36" t="n">
-        <v>937.6097725497345</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="X36" t="n">
-        <v>731.082873955312</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="Y36" t="n">
-        <v>525.3544381789625</v>
+        <v>5.16104507659021</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="C37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="D37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="E37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="F37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="G37" t="n">
-        <v>18.75219545099469</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="H37" t="n">
-        <v>18.75219545099469</v>
+        <v>222.584991194137</v>
       </c>
       <c r="I37" t="n">
-        <v>18.75219545099469</v>
+        <v>157.4202806311293</v>
       </c>
       <c r="J37" t="n">
-        <v>18.75219545099469</v>
+        <v>92.25557006812163</v>
       </c>
       <c r="K37" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="L37" t="n">
-        <v>55.83871437771388</v>
+        <v>114.4184428152112</v>
       </c>
       <c r="M37" t="n">
-        <v>105.5341482946534</v>
+        <v>164.1138767321507</v>
       </c>
       <c r="N37" t="n">
-        <v>159.1891977626449</v>
+        <v>217.7689262001422</v>
       </c>
       <c r="O37" t="n">
-        <v>193.4117237123162</v>
+        <v>251.9914521498135</v>
       </c>
       <c r="P37" t="n">
-        <v>199.4725253920132</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="V37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="W37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="X37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.3376388147402</v>
+        <v>258.0522538295105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>255.522340034261</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="C38" t="n">
-        <v>255.522340034261</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="D38" t="n">
-        <v>255.522340034261</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="E38" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="F38" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G38" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H38" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I38" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J38" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="K38" t="n">
-        <v>140.0505835130984</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="L38" t="n">
-        <v>342.5010379644619</v>
+        <v>69.02897789939406</v>
       </c>
       <c r="M38" t="n">
-        <v>574.5594566705213</v>
+        <v>132.8969107221979</v>
       </c>
       <c r="N38" t="n">
-        <v>655.494956483685</v>
+        <v>190.1653737745812</v>
       </c>
       <c r="O38" t="n">
-        <v>825.4645245370244</v>
+        <v>254.033306597385</v>
       </c>
       <c r="P38" t="n">
-        <v>933.5908253176091</v>
+        <v>254.033306597385</v>
       </c>
       <c r="Q38" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R38" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S38" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T38" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U38" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="V38" t="n">
-        <v>937.6097725497345</v>
+        <v>192.8875432665028</v>
       </c>
       <c r="W38" t="n">
-        <v>729.0626292007936</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="X38" t="n">
-        <v>492.2924846175273</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="Y38" t="n">
-        <v>255.522340034261</v>
+        <v>5.16104507659021</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>805.2586182368689</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="C39" t="n">
-        <v>805.2586182368689</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="D39" t="n">
-        <v>657.6703115958128</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="E39" t="n">
-        <v>500.0607825986675</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="F39" t="n">
-        <v>355.1049926152843</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="G39" t="n">
-        <v>217.7078105899891</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="H39" t="n">
-        <v>106.1295120827843</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="I39" t="n">
-        <v>18.75219545099469</v>
+        <v>5.16104507659021</v>
       </c>
       <c r="J39" t="n">
-        <v>26.14550629747959</v>
+        <v>12.55435592307511</v>
       </c>
       <c r="K39" t="n">
-        <v>26.14550629747959</v>
+        <v>12.55435592307511</v>
       </c>
       <c r="L39" t="n">
-        <v>258.2039250035389</v>
+        <v>76.42228874587896</v>
       </c>
       <c r="M39" t="n">
-        <v>258.2039250035389</v>
+        <v>76.42228874587896</v>
       </c>
       <c r="N39" t="n">
-        <v>425.8027159923803</v>
+        <v>130.3163881839028</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8611346984396</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="P39" t="n">
-        <v>856.4316045334366</v>
+        <v>194.1843210067067</v>
       </c>
       <c r="Q39" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R39" t="n">
-        <v>937.6097725497345</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S39" t="n">
-        <v>937.6097725497345</v>
+        <v>200.6551767656133</v>
       </c>
       <c r="T39" t="n">
-        <v>937.6097725497345</v>
+        <v>200.6551767656133</v>
       </c>
       <c r="U39" t="n">
-        <v>937.6097725497345</v>
+        <v>135.4904662026056</v>
       </c>
       <c r="V39" t="n">
-        <v>937.6097725497345</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="W39" t="n">
-        <v>937.6097725497345</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="X39" t="n">
-        <v>937.6097725497345</v>
+        <v>70.32575563959792</v>
       </c>
       <c r="Y39" t="n">
-        <v>937.6097725497345</v>
+        <v>5.16104507659021</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="C40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="D40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="E40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="F40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="G40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="H40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="I40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="J40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="K40" t="n">
-        <v>18.75219545099469</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="L40" t="n">
-        <v>55.83871437771388</v>
+        <v>114.4184428152112</v>
       </c>
       <c r="M40" t="n">
-        <v>105.5341482946534</v>
+        <v>164.1138767321507</v>
       </c>
       <c r="N40" t="n">
-        <v>159.1891977626449</v>
+        <v>217.7689262001422</v>
       </c>
       <c r="O40" t="n">
-        <v>193.4117237123162</v>
+        <v>251.9914521498135</v>
       </c>
       <c r="P40" t="n">
-        <v>199.4725253920132</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.4725253920132</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="R40" t="n">
-        <v>199.4725253920132</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="S40" t="n">
-        <v>199.4725253920132</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="T40" t="n">
-        <v>199.4725253920132</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="U40" t="n">
-        <v>199.4725253920132</v>
+        <v>258.0522538295105</v>
       </c>
       <c r="V40" t="n">
-        <v>199.4725253920132</v>
+        <v>207.6613450145074</v>
       </c>
       <c r="W40" t="n">
-        <v>199.4725253920132</v>
+        <v>142.4966344514997</v>
       </c>
       <c r="X40" t="n">
-        <v>199.4725253920132</v>
+        <v>77.33192388849199</v>
       </c>
       <c r="Y40" t="n">
-        <v>199.4725253920132</v>
+        <v>77.33192388849199</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.522340034261</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="C41" t="n">
-        <v>18.75219545099469</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="D41" t="n">
-        <v>18.75219545099469</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="E41" t="n">
-        <v>18.75219545099469</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="F41" t="n">
-        <v>18.75219545099469</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="G41" t="n">
-        <v>18.75219545099469</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="H41" t="n">
-        <v>18.75219545099469</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I41" t="n">
-        <v>18.75219545099469</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J41" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K41" t="n">
-        <v>140.0505835130984</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L41" t="n">
-        <v>342.5010379644619</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M41" t="n">
-        <v>574.5594566705213</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="N41" t="n">
-        <v>803.4108904084908</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="O41" t="n">
-        <v>933.5908253176091</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="P41" t="n">
-        <v>933.5908253176091</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q41" t="n">
-        <v>937.6097725497345</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R41" t="n">
-        <v>794.3261132559193</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S41" t="n">
-        <v>794.3261132559193</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T41" t="n">
-        <v>794.3261132559193</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U41" t="n">
-        <v>794.3261132559193</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V41" t="n">
-        <v>794.3261132559193</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W41" t="n">
-        <v>794.3261132559193</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X41" t="n">
-        <v>729.0626292007936</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y41" t="n">
-        <v>492.2924846175273</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>675.4464143345233</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="C42" t="n">
-        <v>502.6932992563405</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="D42" t="n">
-        <v>355.1049926152843</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="E42" t="n">
-        <v>355.1049926152843</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F42" t="n">
-        <v>355.1049926152843</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G42" t="n">
-        <v>217.7078105899891</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H42" t="n">
-        <v>106.1295120827843</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I42" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J42" t="n">
-        <v>26.14550629747959</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K42" t="n">
-        <v>165.3874653556305</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L42" t="n">
-        <v>397.4458840616898</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M42" t="n">
-        <v>425.8027159923803</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="N42" t="n">
-        <v>657.8611346984396</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O42" t="n">
-        <v>657.8611346984396</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P42" t="n">
-        <v>856.4316045334366</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q42" t="n">
-        <v>937.6097725497345</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R42" t="n">
-        <v>937.6097725497345</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S42" t="n">
-        <v>937.6097725497345</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T42" t="n">
-        <v>937.6097725497345</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U42" t="n">
-        <v>937.6097725497345</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V42" t="n">
-        <v>937.6097725497345</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W42" t="n">
-        <v>937.6097725497345</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="X42" t="n">
-        <v>731.082873955312</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="Y42" t="n">
-        <v>675.4464143345233</v>
+        <v>107.2991500431215</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L43" t="n">
-        <v>55.83871437771388</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M43" t="n">
-        <v>105.5341482946534</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N43" t="n">
-        <v>159.1891977626449</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O43" t="n">
-        <v>193.4117237123162</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P43" t="n">
-        <v>199.4725253920132</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9061618810555</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R43" t="n">
-        <v>118.9061618810555</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="S43" t="n">
-        <v>18.75219545099469</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="T43" t="n">
-        <v>18.75219545099469</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="U43" t="n">
-        <v>18.75219545099469</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="V43" t="n">
-        <v>18.75219545099469</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="W43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.75219545099469</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>169.2350909958742</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>114.4906266881591</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>119.039171355639</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>59.08022588088608</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>75.56716289875945</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>214.587604768856</v>
+        <v>252.8576007223514</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M2" t="n">
         <v>224.5875773965909</v>
@@ -7991,10 +7993,10 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q2" t="n">
         <v>216.7480476275882</v>
@@ -8055,10 +8057,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L3" t="n">
         <v>135.0905202853774</v>
@@ -8067,13 +8069,13 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>158.8601744807202</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8140,19 +8142,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M4" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O4" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P4" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q4" t="n">
         <v>67.95667671286152</v>
@@ -8216,25 +8218,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>248.7980580636387</v>
       </c>
       <c r="L5" t="n">
         <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N5" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O5" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8292,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
         <v>134.395403</v>
@@ -8301,19 +8303,19 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>169.382688273438</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O6" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8377,19 +8379,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L7" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M7" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N7" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O7" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P7" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q7" t="n">
         <v>67.95667671286152</v>
@@ -8453,10 +8455,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>252.8576007223514</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M8" t="n">
         <v>264.4689416007598</v>
@@ -8465,13 +8467,13 @@
         <v>263.559101210845</v>
       </c>
       <c r="O8" t="n">
-        <v>264.2271203403134</v>
+        <v>258.5562094309273</v>
       </c>
       <c r="P8" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8529,16 +8531,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>174.2767672041689</v>
       </c>
       <c r="L9" t="n">
-        <v>165.8925254848475</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>178.4620472781367</v>
+        <v>176.8506790274632</v>
       </c>
       <c r="N9" t="n">
         <v>167.9395334854188</v>
@@ -8547,7 +8549,7 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8693,19 +8695,19 @@
         <v>254.4689689730249</v>
       </c>
       <c r="L11" t="n">
-        <v>269.7536187999064</v>
+        <v>264.0827078905203</v>
       </c>
       <c r="M11" t="n">
-        <v>264.4689416007598</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N11" t="n">
-        <v>257.8881903014588</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8772,16 +8774,16 @@
         <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M12" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>166.3281652347453</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>178.9127025375022</v>
+        <v>177.3013342868286</v>
       </c>
       <c r="P12" t="n">
         <v>170.5064114331408</v>
@@ -8930,7 +8932,7 @@
         <v>214.587604768856</v>
       </c>
       <c r="L14" t="n">
-        <v>229.8722545957376</v>
+        <v>264.0827078905203</v>
       </c>
       <c r="M14" t="n">
         <v>264.4689416007598</v>
@@ -8939,10 +8941,10 @@
         <v>263.559101210845</v>
       </c>
       <c r="O14" t="n">
-        <v>264.2271203403134</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P14" t="n">
-        <v>259.6626241561705</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q14" t="n">
         <v>220.8075902863009</v>
@@ -9003,25 +9005,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K15" t="n">
-        <v>174.2767672041689</v>
+        <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>165.8925254848475</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M15" t="n">
-        <v>178.4620472781367</v>
+        <v>176.8506790274632</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P15" t="n">
-        <v>170.5064114331408</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
         <v>136.482229733871</v>
@@ -9164,22 +9166,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>254.4689689730249</v>
+        <v>264.7850127657646</v>
       </c>
       <c r="L17" t="n">
-        <v>269.7536187999064</v>
+        <v>280.0696625926461</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5875773965909</v>
+        <v>268.6972646339017</v>
       </c>
       <c r="N17" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>258.5562094309273</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P17" t="n">
-        <v>265.3335350655566</v>
+        <v>275.6495788582964</v>
       </c>
       <c r="Q17" t="n">
         <v>220.8075902863009</v>
@@ -9243,25 +9245,25 @@
         <v>123.666686</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>182.5646328960234</v>
       </c>
       <c r="L18" t="n">
-        <v>174.9718844895462</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M18" t="n">
-        <v>178.4620472781367</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>178.2555772781585</v>
       </c>
       <c r="O18" t="n">
-        <v>139.0313383333333</v>
+        <v>189.2287463302419</v>
       </c>
       <c r="P18" t="n">
-        <v>168.8950431824673</v>
+        <v>180.8224552258806</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.3635939380398</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9328,10 +9330,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M19" t="n">
-        <v>175.3340035530838</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N19" t="n">
-        <v>164.3747700577712</v>
+        <v>174.6908138505109</v>
       </c>
       <c r="O19" t="n">
         <v>169.5633330205178</v>
@@ -9401,25 +9403,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1112290740114</v>
+        <v>264.7850127657646</v>
       </c>
       <c r="L20" t="n">
-        <v>434.3676631324684</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>272.7568072926143</v>
       </c>
       <c r="N20" t="n">
-        <v>454.8408013884635</v>
+        <v>273.8751450035847</v>
       </c>
       <c r="O20" t="n">
-        <v>396.0321885132552</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P20" t="n">
-        <v>334.6706564983419</v>
+        <v>275.6495788582964</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,25 +9482,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>184.5928109969086</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M21" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>179.7325774753315</v>
       </c>
       <c r="P21" t="n">
-        <v>139.473584579462</v>
+        <v>180.8224552258806</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>186.6796377307795</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9568,7 +9570,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N22" t="n">
-        <v>178.6904255182403</v>
+        <v>174.6908138505109</v>
       </c>
       <c r="O22" t="n">
         <v>169.5633330205178</v>
@@ -9638,25 +9640,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L23" t="n">
-        <v>434.3676631324684</v>
+        <v>334.2666822572841</v>
       </c>
       <c r="M23" t="n">
-        <v>467.4940748325458</v>
+        <v>328.9820050581374</v>
       </c>
       <c r="N23" t="n">
-        <v>454.8408013884635</v>
+        <v>328.0721646682226</v>
       </c>
       <c r="O23" t="n">
-        <v>396.0321885132552</v>
+        <v>324.5222271244972</v>
       </c>
       <c r="P23" t="n">
-        <v>334.6706564983419</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>145.1057337229155</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>239.4849479469238</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>242.9751107355143</v>
       </c>
       <c r="N24" t="n">
-        <v>402.3419766228525</v>
+        <v>232.4525969427964</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>146.9415753334873</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9875,25 +9877,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1112290740114</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>294.3853180531152</v>
       </c>
       <c r="M26" t="n">
-        <v>467.4940748325458</v>
+        <v>289.1006408539686</v>
       </c>
       <c r="N26" t="n">
-        <v>454.8408013884635</v>
+        <v>288.1908004640538</v>
       </c>
       <c r="O26" t="n">
-        <v>396.0321885132552</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>287.3586458962451</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9951,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>142.4213567781431</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>385.6739591155975</v>
+        <v>199.603583742755</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155703</v>
+        <v>203.0937465313455</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>182.4966535620821</v>
       </c>
       <c r="O27" t="n">
-        <v>409.6168120477987</v>
+        <v>203.5444017907109</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10112,25 +10114,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324684</v>
+        <v>294.3853180531152</v>
       </c>
       <c r="M29" t="n">
-        <v>467.4940748325458</v>
+        <v>289.1006408539686</v>
       </c>
       <c r="N29" t="n">
-        <v>454.8408013884635</v>
+        <v>281.5246693828208</v>
       </c>
       <c r="O29" t="n">
-        <v>396.0321885132552</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>289.9652343187654</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10194,22 +10196,22 @@
         <v>134.395403</v>
       </c>
       <c r="L30" t="n">
-        <v>385.6739591155975</v>
+        <v>199.603583742755</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>203.0937465313455</v>
       </c>
       <c r="N30" t="n">
-        <v>136.0841230593931</v>
+        <v>189.9646443161073</v>
       </c>
       <c r="O30" t="n">
-        <v>409.6168120477987</v>
+        <v>203.5444017907109</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10349,25 +10351,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>214.587604768856</v>
+        <v>279.1006682262337</v>
       </c>
       <c r="L32" t="n">
-        <v>411.5407958288557</v>
+        <v>294.3853180531152</v>
       </c>
       <c r="M32" t="n">
-        <v>458.9900205340246</v>
+        <v>282.4345097727356</v>
       </c>
       <c r="N32" t="n">
-        <v>454.8408013884635</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>396.0321885132552</v>
+        <v>288.8588195935222</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10428,25 +10430,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>188.8338872808322</v>
       </c>
       <c r="L33" t="n">
-        <v>369.492963422811</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>249.222097161835</v>
+        <v>203.0937465313455</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>192.5712327386276</v>
       </c>
       <c r="O33" t="n">
-        <v>373.4337814707669</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>200.9952931912486</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10586,25 +10588,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740114</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L35" t="n">
-        <v>434.3676631324684</v>
+        <v>291.7787296305949</v>
       </c>
       <c r="M35" t="n">
-        <v>458.9900205340246</v>
+        <v>289.1006408539686</v>
       </c>
       <c r="N35" t="n">
-        <v>454.8408013884635</v>
+        <v>288.1908004640538</v>
       </c>
       <c r="O35" t="n">
-        <v>355.8406398827287</v>
+        <v>288.8588195935222</v>
       </c>
       <c r="P35" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10665,22 +10667,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
-        <v>369.492963422811</v>
+        <v>199.603583742755</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>193.0191673548</v>
       </c>
       <c r="N36" t="n">
-        <v>238.6995833691171</v>
+        <v>192.5712327386276</v>
       </c>
       <c r="O36" t="n">
-        <v>373.4337814707669</v>
+        <v>203.5444017907109</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
         <v>136.482229733871</v>
@@ -10823,22 +10825,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1112290740114</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L38" t="n">
-        <v>434.3676631324684</v>
+        <v>294.3853180531152</v>
       </c>
       <c r="M38" t="n">
-        <v>458.9900205340246</v>
+        <v>289.1006408539686</v>
       </c>
       <c r="N38" t="n">
-        <v>305.4307671209829</v>
+        <v>281.5246693828208</v>
       </c>
       <c r="O38" t="n">
-        <v>396.0321885132552</v>
+        <v>288.8588195935222</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10905,22 +10907,22 @@
         <v>134.395403</v>
       </c>
       <c r="L39" t="n">
-        <v>369.492963422811</v>
+        <v>199.603583742755</v>
       </c>
       <c r="M39" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3498773507868</v>
+        <v>182.4966535620821</v>
       </c>
       <c r="O39" t="n">
-        <v>373.4337814707669</v>
+        <v>203.5444017907109</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>200.9952931912486</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11060,22 +11062,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740114</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L41" t="n">
-        <v>434.3676631324684</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M41" t="n">
-        <v>458.9900205340246</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N41" t="n">
-        <v>454.8408013884635</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O41" t="n">
-        <v>355.8406398827287</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>273.3998692950045</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11139,25 +11141,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>369.492963422811</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M42" t="n">
-        <v>167.223947650423</v>
+        <v>183.119933412272</v>
       </c>
       <c r="N42" t="n">
-        <v>362.4606124186836</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11297,25 +11299,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>272.5352758302076</v>
       </c>
       <c r="N44" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P44" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,16 +11375,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>183.119933412272</v>
       </c>
       <c r="N45" t="n">
         <v>128.05816928125</v>
@@ -11394,7 +11396,7 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11458,19 +11460,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -22556,16 +22558,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>407.2938634805408</v>
+        <v>372.166357889509</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>165.3429436639552</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -22601,7 +22603,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>59.56747417005932</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>129.0802497014755</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>184.7758128630324</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22720,13 +22722,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>121.752707804748</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>113.8771825932348</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>48.9574807236101</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>44.63319428481628</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -22802,10 +22804,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>165.3429436639552</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>165.9835875193704</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>188.4968887399509</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>129.0802497014755</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>189.5296714761693</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -22954,19 +22956,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>147.5364930569095</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6340720089168</v>
+        <v>121.752707804748</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>113.8771825932348</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>48.9574807236101</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,13 +23032,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>372.8256350240713</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I8" t="n">
         <v>165.3429436639552</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>101.9694584967082</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>165.9835875193704</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>188.4968887399509</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -23109,16 +23111,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>108.3787264925174</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>96.14184600087347</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>70.58115131796393</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>46.62217926130283</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.81361555692238</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>129.0802497014755</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>158.5011677040998</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>189.5296714761693</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -23258,25 +23260,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>331.8575900879108</v>
+        <v>327.1037314747738</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>316.7233685504295</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>343.2366715511186</v>
       </c>
       <c r="F11" t="n">
-        <v>367.412499276372</v>
+        <v>372.166357889509</v>
       </c>
       <c r="G11" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>298.2625391839845</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>165.3429436639552</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.87933567167934</v>
+        <v>44.63319428481628</v>
       </c>
       <c r="R13" t="n">
         <v>133.5097834656135</v>
@@ -23467,7 +23469,7 @@
         <v>182.4760427572537</v>
       </c>
       <c r="T13" t="n">
-        <v>193.2049604004758</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U13" t="n">
         <v>286.0522703910642</v>
@@ -23495,16 +23497,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>327.1037314747738</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>316.7233685504295</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>343.2366715511186</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>372.166357889509</v>
       </c>
       <c r="G14" t="n">
         <v>414.8547654038309</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>101.9694584967082</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>165.9835875193704</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>183.0837529922515</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>216.3502579855125</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23577,13 +23579,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>120.9059281161419</v>
       </c>
       <c r="F15" t="n">
-        <v>108.3787264925174</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>96.14184600087347</v>
@@ -23592,7 +23594,7 @@
         <v>70.58115131796393</v>
       </c>
       <c r="I15" t="n">
-        <v>46.62217926130283</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23738,16 +23740,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>332.9206277583789</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>357.0964554836323</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>364.6573574069224</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>293.9300264244764</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>101.9694584967082</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9835875193704</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>183.0837529922515</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>216.3502579855125</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23826,10 +23828,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>70.58115131796393</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>46.62217926130283</v>
+        <v>36.3061354685631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>54.81361555692238</v>
+        <v>44.49757176418265</v>
       </c>
       <c r="S18" t="n">
-        <v>133.8341083146125</v>
+        <v>118.7642059087358</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>154.1686549445917</v>
       </c>
       <c r="U18" t="n">
         <v>224.6571770672012</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.9561858996519</v>
+        <v>155.6828082353427</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>117.1391449342938</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23908,7 +23910,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I19" t="n">
-        <v>153.7585467974036</v>
+        <v>103.5611388004951</v>
       </c>
       <c r="J19" t="n">
         <v>88.83884492777894</v>
@@ -23935,16 +23937,16 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>133.5097834656135</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>178.1350579945991</v>
       </c>
       <c r="U19" t="n">
-        <v>246.1709061868954</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23953,7 +23955,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>186.2589957281404</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>142.1272324849117</v>
+        <v>333.5190019944865</v>
       </c>
       <c r="C20" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23984,7 +23986,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24029,13 +24031,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>306.3162400368776</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>320.6641911342608</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>336.4896637543272</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.94841054438854</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -24063,7 +24065,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>60.26510752522421</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>44.49757176418265</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>148.1851239113601</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>160.2477526448012</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24130,13 +24132,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>98.80815851761079</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>95.96161341289593</v>
       </c>
       <c r="G22" t="n">
         <v>167.8895889301081</v>
@@ -24145,7 +24147,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I22" t="n">
-        <v>153.7585467974036</v>
+        <v>129.3576635420625</v>
       </c>
       <c r="J22" t="n">
         <v>88.83884492777894</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.76069987584818</v>
+        <v>29.56329187893961</v>
       </c>
       <c r="R22" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S22" t="n">
-        <v>189.6033017296186</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
         <v>228.3324659915077</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>292.4250752416674</v>
       </c>
       <c r="C23" t="n">
-        <v>267.2467408733364</v>
+        <v>262.5906680173962</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24227,7 +24229,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>118.5706895348739</v>
       </c>
       <c r="U23" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>246.1356893390081</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>79.07497204311092</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24300,7 +24302,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>36.61461860151182</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24333,25 +24335,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>64.56718624409791</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>93.9881042467222</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>99.27672375703955</v>
       </c>
     </row>
     <row r="25">
@@ -24364,10 +24366,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>62.94212526965586</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>74.4868675344575</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
         <v>173.3911476697823</v>
@@ -24421,7 +24423,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
-        <v>153.783924301179</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>319.2033465340174</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>302.472032221565</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -24455,10 +24457,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>140.5709580622284</v>
+        <v>358.0316591105727</v>
       </c>
       <c r="H26" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24503,7 +24505,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>76.2463096589521</v>
+        <v>286.017053543177</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -24537,10 +24539,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
-        <v>17.27864692373673</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
@@ -24576,19 +24578,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>160.1441136098236</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>167.3956675822775</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>185.4762832926224</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>147.6385233152201</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -24643,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3324659915077</v>
+        <v>178.4454662646546</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>221.5392069336866</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>188.4232876095615</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24680,19 +24682,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>302.472032221565</v>
       </c>
       <c r="D29" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>284.0389580842437</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0100561389384</v>
+        <v>342.7808000231632</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>358.0316591105727</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
@@ -24701,7 +24703,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
@@ -24743,10 +24745,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>306.3485356737917</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24761,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>106.5125204700234</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>79.20010391178411</v>
       </c>
       <c r="H30" t="n">
         <v>110.4625155221328</v>
@@ -24807,13 +24809,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>104.4485504482668</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>133.869468450891</v>
       </c>
       <c r="U30" t="n">
-        <v>109.2360229202345</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24847,19 +24849,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>135.1354836983041</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H31" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I31" t="n">
-        <v>153.7585467974036</v>
+        <v>103.8715470705505</v>
       </c>
       <c r="J31" t="n">
-        <v>88.83884492777894</v>
+        <v>24.32578147040131</v>
       </c>
       <c r="K31" t="n">
         <v>14.77440971783335</v>
@@ -24898,7 +24900,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>221.5795134300379</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149.3139668539614</v>
+        <v>319.2033465340174</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24923,7 +24925,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>148.7155926178538</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
@@ -24968,22 +24970,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>166.1420109031621</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>186.9647001191668</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>116.1276738631209</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>164.3999272157179</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>322.1740082938582</v>
       </c>
     </row>
     <row r="33">
@@ -25002,10 +25004,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>99.21032741391562</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>78.99316862617167</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>30.18191630371359</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>104.4485504482668</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>164.230399343017</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -25126,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>163.81940253413</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25135,13 +25137,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458073</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>161.6272964749316</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>168.8616741409151</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>149.3139668539614</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>160.5234237634911</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>299.7816264613402</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>318.6049722979099</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>342.7808000231632</v>
       </c>
       <c r="G35" t="n">
         <v>414.8547654038309</v>
@@ -25214,13 +25216,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>116.1276738631209</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.2846286138022</v>
+        <v>322.1740082938582</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>137.0073465188771</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -25287,19 +25289,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>167.834070773943</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>167.3956675822775</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>139.9485661511006</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>139.1580879612084</v>
       </c>
     </row>
     <row r="37">
@@ -25324,19 +25326,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6340720089168</v>
+        <v>126.5214819998971</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>89.245483340026</v>
       </c>
       <c r="J37" t="n">
-        <v>88.83884492777894</v>
+        <v>24.32578147040131</v>
       </c>
       <c r="K37" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.73716216434788</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
         <v>173.3911476697823</v>
@@ -25397,7 +25399,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>148.7155926178538</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25448,16 +25450,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>264.0201580651417</v>
       </c>
       <c r="W38" t="n">
-        <v>144.0684450851031</v>
+        <v>293.7070107072964</v>
       </c>
       <c r="X38" t="n">
-        <v>136.4591559937357</v>
+        <v>306.3485356737917</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.2846286138022</v>
+        <v>322.1740082938582</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.34448284060781</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,16 +25520,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>112.1385076123861</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>160.1441136098236</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>167.3956675822775</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -25536,7 +25538,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>139.1580879612084</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25606,13 +25608,13 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>203.0493513400861</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>221.5795134300379</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>161.6272964749316</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>149.3139668539614</v>
+        <v>336.6389522053444</v>
       </c>
       <c r="C41" t="n">
-        <v>132.582652541509</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25637,10 +25639,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>353.096843815903</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25691,10 +25693,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>306.2507499165949</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.2846286138022</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="42">
@@ -25707,25 +25709,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>123.288849006788</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>101.8364140425359</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>195.7923270853622</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>148.5910563940052</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="43">
@@ -25828,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2049801956623</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>174.1354463268698</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>231.8552507264263</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>269.7705092397209</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>329.5193903267572</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>302.4077130899605</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -25886,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>323.7841413451188</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25952,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>101.8364140425359</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>40.49796009645333</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
@@ -26001,10 +26003,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>184.1719961190421</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>195.7923270853622</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -26026,7 +26028,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>94.80854684988147</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -26041,7 +26043,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>137.436479149709</v>
       </c>
       <c r="J46" t="n">
         <v>88.83884492777894</v>
@@ -26077,13 +26079,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>231.8552507264263</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>231.8955572227777</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>323602.8337412903</v>
+        <v>358074.2001711311</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>323602.8337412903</v>
+        <v>358074.2001711311</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358074.2001711311</v>
+        <v>366265.4522168498</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>528258.3253060699</v>
+        <v>366265.4522168496</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528258.3253060699</v>
+        <v>405553.4837837114</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528258.3253060699</v>
+        <v>376748.6433423373</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528258.3253060699</v>
+        <v>376748.6433423375</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499453.4848646961</v>
+        <v>376748.6433423375</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499453.484864696</v>
+        <v>376748.6433423373</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499453.4848646961</v>
+        <v>376748.6433423374</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499453.484864696</v>
+        <v>369297.744874701</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>323602.8337412903</v>
+        <v>369297.7448747008</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53049.64487562134</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="C2" t="n">
-        <v>53049.64487562134</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="D2" t="n">
-        <v>58698.80821005047</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="E2" t="n">
         <v>58698.80821005048</v>
       </c>
       <c r="F2" t="n">
-        <v>58698.80821005049</v>
+        <v>58698.8082100505</v>
       </c>
       <c r="G2" t="n">
-        <v>58698.80821005048</v>
+        <v>60041.18959820703</v>
       </c>
       <c r="H2" t="n">
-        <v>86588.56192117537</v>
+        <v>60041.18959820703</v>
       </c>
       <c r="I2" t="n">
-        <v>86588.56192117539</v>
+        <v>66479.70742897333</v>
       </c>
       <c r="J2" t="n">
-        <v>86588.56192117537</v>
+        <v>61759.17368376541</v>
       </c>
       <c r="K2" t="n">
-        <v>86588.56192117538</v>
+        <v>61759.17368376541</v>
       </c>
       <c r="L2" t="n">
-        <v>81868.02817596741</v>
+        <v>61759.17368376542</v>
       </c>
       <c r="M2" t="n">
-        <v>81868.02817596744</v>
+        <v>61759.17368376542</v>
       </c>
       <c r="N2" t="n">
-        <v>81868.02817596743</v>
+        <v>61759.17368376542</v>
       </c>
       <c r="O2" t="n">
-        <v>81868.02817596744</v>
+        <v>60538.12134986404</v>
       </c>
       <c r="P2" t="n">
-        <v>53049.64487562134</v>
+        <v>60538.12134986404</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13365.16241619369</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12388.34816274097</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2827.472862933068</v>
       </c>
       <c r="H3" t="n">
-        <v>63243.88878046784</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14412.12566624018</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5304.964487562132</v>
+        <v>5915.934096223994</v>
       </c>
       <c r="C4" t="n">
-        <v>5304.964487562132</v>
+        <v>5915.934096223994</v>
       </c>
       <c r="D4" t="n">
-        <v>5915.934096223993</v>
+        <v>5915.934096223994</v>
       </c>
       <c r="E4" t="n">
+        <v>5915.934096223995</v>
+      </c>
+      <c r="F4" t="n">
         <v>5915.934096223994</v>
       </c>
-      <c r="F4" t="n">
-        <v>5915.934096223993</v>
-      </c>
       <c r="G4" t="n">
-        <v>5915.934096223993</v>
+        <v>6061.115636010334</v>
       </c>
       <c r="H4" t="n">
-        <v>8932.273136504818</v>
+        <v>6061.115636010335</v>
       </c>
       <c r="I4" t="n">
-        <v>8932.27313650482</v>
+        <v>6757.455693209835</v>
       </c>
       <c r="J4" t="n">
-        <v>8932.273136504817</v>
+        <v>6246.91944487595</v>
       </c>
       <c r="K4" t="n">
-        <v>8932.27313650482</v>
+        <v>6246.919444875949</v>
       </c>
       <c r="L4" t="n">
-        <v>8421.736888170935</v>
+        <v>6246.919444875949</v>
       </c>
       <c r="M4" t="n">
-        <v>8421.736888170935</v>
+        <v>6246.91944487595</v>
       </c>
       <c r="N4" t="n">
-        <v>8421.736888170934</v>
+        <v>6246.919444875949</v>
       </c>
       <c r="O4" t="n">
-        <v>8421.736888170934</v>
+        <v>6114.859912793974</v>
       </c>
       <c r="P4" t="n">
-        <v>5304.964487562132</v>
+        <v>6114.859912793974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>36052.38694361346</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>36052.38694361346</v>
       </c>
       <c r="D5" t="n">
         <v>36052.38694361346</v>
@@ -26482,34 +26484,34 @@
         <v>2424.786943613465</v>
       </c>
       <c r="G5" t="n">
-        <v>2424.786943613465</v>
+        <v>3052.002406212041</v>
       </c>
       <c r="H5" t="n">
-        <v>16676.45548636943</v>
+        <v>3052.002406212041</v>
       </c>
       <c r="I5" t="n">
-        <v>16676.45548636943</v>
+        <v>6347.181201822025</v>
       </c>
       <c r="J5" t="n">
-        <v>16676.45548636943</v>
+        <v>3922.39425820856</v>
       </c>
       <c r="K5" t="n">
-        <v>16676.45548636943</v>
+        <v>3922.39425820856</v>
       </c>
       <c r="L5" t="n">
-        <v>14251.66854275596</v>
+        <v>3922.39425820856</v>
       </c>
       <c r="M5" t="n">
-        <v>14251.66854275596</v>
+        <v>3922.39425820856</v>
       </c>
       <c r="N5" t="n">
-        <v>14251.66854275596</v>
+        <v>3922.39425820856</v>
       </c>
       <c r="O5" t="n">
-        <v>14251.66854275596</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3295.178795609984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14117.08038805921</v>
+        <v>3365.324754019326</v>
       </c>
       <c r="C6" t="n">
-        <v>14117.08038805921</v>
+        <v>16730.48717021302</v>
       </c>
       <c r="D6" t="n">
-        <v>4342.139007472048</v>
+        <v>16730.48717021303</v>
       </c>
       <c r="E6" t="n">
         <v>50358.08717021302</v>
       </c>
       <c r="F6" t="n">
-        <v>50358.08717021303</v>
+        <v>50358.08717021304</v>
       </c>
       <c r="G6" t="n">
-        <v>50358.08717021302</v>
+        <v>48100.59869305159</v>
       </c>
       <c r="H6" t="n">
-        <v>-2264.055482166719</v>
+        <v>50928.07155598465</v>
       </c>
       <c r="I6" t="n">
-        <v>60979.83329830114</v>
+        <v>38962.9448677013</v>
       </c>
       <c r="J6" t="n">
-        <v>60979.83329830113</v>
+        <v>51589.8599806809</v>
       </c>
       <c r="K6" t="n">
-        <v>60979.83329830113</v>
+        <v>51589.8599806809</v>
       </c>
       <c r="L6" t="n">
-        <v>59194.62274504051</v>
+        <v>51589.85998068091</v>
       </c>
       <c r="M6" t="n">
-        <v>59194.62274504053</v>
+        <v>51589.85998068091</v>
       </c>
       <c r="N6" t="n">
-        <v>59194.62274504052</v>
+        <v>51589.85998068091</v>
       </c>
       <c r="O6" t="n">
-        <v>59194.62274504055</v>
+        <v>51128.08264146009</v>
       </c>
       <c r="P6" t="n">
-        <v>47744.68038805921</v>
+        <v>51128.08264146007</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D4" t="n">
         <v>39.88136420416884</v>
@@ -26802,34 +26804,34 @@
         <v>39.88136420416884</v>
       </c>
       <c r="G4" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="H4" t="n">
-        <v>274.2838073416025</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="I4" t="n">
-        <v>274.2838073416025</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416025</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="K4" t="n">
-        <v>274.2838073416025</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="L4" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M4" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N4" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="O4" t="n">
-        <v>234.4024431374336</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.31604379273973</v>
       </c>
       <c r="H4" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54.19701966463791</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>10.31604379273973</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.80200519947018</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>38.26999595349533</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M8" t="n">
         <v>39.88136420416884</v>
@@ -35185,13 +35187,13 @@
         <v>39.88136420416884</v>
       </c>
       <c r="O8" t="n">
-        <v>39.88136420416884</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="L9" t="n">
-        <v>30.80200519947019</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.88136420416884</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="N9" t="n">
         <v>39.88136420416884</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.88136420416884</v>
       </c>
       <c r="N10" t="n">
-        <v>39.88136420416885</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O10" t="n">
         <v>34.56820802997106</v>
@@ -35413,19 +35415,19 @@
         <v>39.88136420416884</v>
       </c>
       <c r="L11" t="n">
+        <v>34.21045329478271</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="N11" t="n">
-        <v>34.21045329478271</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>38.26999595349533</v>
-      </c>
-      <c r="O12" t="n">
-        <v>39.88136420416884</v>
       </c>
       <c r="P12" t="n">
         <v>39.88136420416884</v>
@@ -35650,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="M14" t="n">
         <v>39.88136420416884</v>
@@ -35659,10 +35661,10 @@
         <v>39.88136420416884</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>39.88136420416884</v>
-      </c>
-      <c r="P14" t="n">
-        <v>34.21045329478271</v>
       </c>
       <c r="Q14" t="n">
         <v>4.059542658712616</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="L15" t="n">
-        <v>30.80200519947019</v>
-      </c>
       <c r="M15" t="n">
+        <v>38.26999595349533</v>
+      </c>
+      <c r="N15" t="n">
         <v>39.88136420416884</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P15" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="L17" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>44.10968723731074</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>34.21045329478271</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="Q17" t="n">
         <v>4.059542658712616</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>48.16922989602339</v>
       </c>
       <c r="L18" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="P18" t="n">
-        <v>38.26999595349533</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,10 +36050,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M19" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="N19" t="n">
-        <v>39.88136420416884</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="O19" t="n">
         <v>34.56820802997106</v>
@@ -36121,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>122.5236243051553</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="L20" t="n">
-        <v>204.4954085367308</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>242.9064974359549</v>
+        <v>48.16922989602339</v>
       </c>
       <c r="N20" t="n">
-        <v>231.1630643817873</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="O20" t="n">
-        <v>171.6864323771106</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>109.2184856369541</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="L21" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>270.5854737144654</v>
+        <v>40.70123914199824</v>
       </c>
       <c r="P21" t="n">
-        <v>8.848537350489996</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36290,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N22" t="n">
-        <v>54.19701966463789</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="O22" t="n">
         <v>34.56820802997106</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>122.5236243051553</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>204.4954085367308</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="M23" t="n">
-        <v>242.9064974359549</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="N23" t="n">
-        <v>231.1630643817873</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="O23" t="n">
-        <v>171.6864323771106</v>
+        <v>100.1764709883527</v>
       </c>
       <c r="P23" t="n">
-        <v>109.2184856369541</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>10.71033072291545</v>
       </c>
       <c r="L24" t="n">
-        <v>250.5834388302202</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2838073416025</v>
+        <v>104.3944276615465</v>
       </c>
       <c r="O24" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>16.31652810451531</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>122.5236243051553</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>204.4954085367308</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M26" t="n">
-        <v>242.9064974359549</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N26" t="n">
-        <v>231.1630643817873</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="O26" t="n">
-        <v>171.6864323771106</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>109.2184856369541</v>
+        <v>61.90647503485732</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>8.025953778143117</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>250.5834388302202</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2838073416025</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>54.43848428083218</v>
       </c>
       <c r="O27" t="n">
-        <v>270.5854737144654</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>122.5236243051553</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>204.4954085367308</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M29" t="n">
-        <v>242.9064974359549</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N29" t="n">
-        <v>231.1630643817873</v>
+        <v>57.8469323761447</v>
       </c>
       <c r="O29" t="n">
-        <v>171.6864323771106</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>109.2184856369541</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>250.5834388302202</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N30" t="n">
-        <v>8.025953778143149</v>
+        <v>61.90647503485732</v>
       </c>
       <c r="O30" t="n">
-        <v>270.5854737144654</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="P30" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="L32" t="n">
-        <v>181.6685412331182</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M32" t="n">
-        <v>234.4024431374336</v>
+        <v>57.8469323761447</v>
       </c>
       <c r="N32" t="n">
-        <v>231.1630643817873</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>171.6864323771106</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="P32" t="n">
-        <v>109.2184856369541</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>140.6484434930818</v>
+        <v>54.43848428083216</v>
       </c>
       <c r="L33" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>110.6414140878671</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="O33" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>122.5236243051553</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>204.4954085367308</v>
+        <v>61.90647503485731</v>
       </c>
       <c r="M35" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N35" t="n">
-        <v>231.1630643817873</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="O35" t="n">
-        <v>131.4948837465841</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>54.43848428083216</v>
       </c>
       <c r="N36" t="n">
-        <v>110.6414140878671</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="O36" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="P36" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>122.5236243051553</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>204.4954085367308</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M38" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="N38" t="n">
-        <v>81.75303011430675</v>
+        <v>57.8469323761447</v>
       </c>
       <c r="O38" t="n">
-        <v>171.6864323771106</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="P38" t="n">
-        <v>109.2184856369541</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>4.059542658712616</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>169.2917080695368</v>
+        <v>54.43848428083216</v>
       </c>
       <c r="O39" t="n">
-        <v>234.4024431374336</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.99814951141209</v>
+        <v>64.51306345737763</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>122.5236243051553</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>204.4954085367308</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>234.4024431374336</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N41" t="n">
-        <v>231.1630643817873</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O41" t="n">
-        <v>131.4948837465841</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="Q41" t="n">
         <v>4.059542658712616</v>
@@ -37859,25 +37861,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>234.4024431374336</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M42" t="n">
-        <v>28.64326457645508</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="N42" t="n">
-        <v>234.4024431374336</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P42" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>50.19740799690857</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
